--- a/深圳大学自考本科考试计划表.xlsx
+++ b/深圳大学自考本科考试计划表.xlsx
@@ -4,18 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="22943" windowHeight="11028" activeTab="1"/>
+    <workbookView windowWidth="22943" windowHeight="11028" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="考试计划" sheetId="1" r:id="rId1"/>
     <sheet name="专业课程表" sheetId="2" r:id="rId2"/>
+    <sheet name="202010复习计划表" sheetId="3" r:id="rId3"/>
+    <sheet name="作息时间表" sheetId="4" r:id="rId4"/>
+    <sheet name="实践考核" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210">
   <si>
     <t>2020.04.11-2020.04.12</t>
   </si>
@@ -319,6 +322,15 @@
   </si>
   <si>
     <t>04757</t>
+  </si>
+  <si>
+    <t>很少看自考课本，，没买过练习册，每次复习时间不超过2周（一次报4科）</t>
+  </si>
+  <si>
+    <t>背真题，归纳总结，然后考试当天，把储存的套路默写出来</t>
+  </si>
+  <si>
+    <t>围绕着试题反过来找知识点,通过看真题、背答案反过来获取知识</t>
   </si>
   <si>
     <t>计算机科学与技术专业考试计划</t>
@@ -594,21 +606,406 @@
       <t>本专业仅接受国民教育序列的专科（或以上）毕业生申办毕业。</t>
     </r>
   </si>
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>2020.11.7</t>
+  </si>
+  <si>
+    <t>星期六</t>
+  </si>
+  <si>
+    <t>9:00至11:00</t>
+  </si>
+  <si>
+    <t>学位英语</t>
+  </si>
+  <si>
+    <t>11天</t>
+  </si>
+  <si>
+    <t>9天</t>
+  </si>
+  <si>
+    <t>12天</t>
+  </si>
+  <si>
+    <t>每天背单词1H</t>
+  </si>
+  <si>
+    <t>第一章</t>
+  </si>
+  <si>
+    <t>报考</t>
+  </si>
+  <si>
+    <t>第二章</t>
+  </si>
+  <si>
+    <t>第三章</t>
+  </si>
+  <si>
+    <t>第四章</t>
+  </si>
+  <si>
+    <t>第五章</t>
+  </si>
+  <si>
+    <t>休</t>
+  </si>
+  <si>
+    <t>第六章</t>
+  </si>
+  <si>
+    <t>第七八九章</t>
+  </si>
+  <si>
+    <t>做题1-2章</t>
+  </si>
+  <si>
+    <t>做题2-4章</t>
+  </si>
+  <si>
+    <t>做题4-6章</t>
+  </si>
+  <si>
+    <t>V:23.5h</t>
+  </si>
+  <si>
+    <t>做题6-9章</t>
+  </si>
+  <si>
+    <t>整理笔记</t>
+  </si>
+  <si>
+    <t>1.5h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>C,第三章</t>
+  </si>
+  <si>
+    <t>第四五章</t>
+  </si>
+  <si>
+    <t>第六七章</t>
+  </si>
+  <si>
+    <t>做题201904</t>
+  </si>
+  <si>
+    <t>做题201804</t>
+  </si>
+  <si>
+    <t>做题20170410</t>
+  </si>
+  <si>
+    <t>延后</t>
+  </si>
+  <si>
+    <t>第一二三章</t>
+  </si>
+  <si>
+    <t>第五六章</t>
+  </si>
+  <si>
+    <t>第七八章</t>
+  </si>
+  <si>
+    <t>第一二章</t>
+  </si>
+  <si>
+    <t>操作系统</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>数据结构</t>
+  </si>
+  <si>
+    <t>复习</t>
+  </si>
+  <si>
+    <t>计划考试</t>
+  </si>
+  <si>
+    <t>整理资料</t>
+  </si>
+  <si>
+    <t>真题测试</t>
+  </si>
+  <si>
+    <t>教材粗读</t>
+  </si>
+  <si>
+    <t>学习</t>
+  </si>
+  <si>
+    <t>视频时长</t>
+  </si>
+  <si>
+    <t>王菲英语</t>
+  </si>
+  <si>
+    <t>概述1.5h</t>
+  </si>
+  <si>
+    <t>3h</t>
+  </si>
+  <si>
+    <t>名词1.5h</t>
+  </si>
+  <si>
+    <t>代词1.5h</t>
+  </si>
+  <si>
+    <t>数词1.5h</t>
+  </si>
+  <si>
+    <t>代+数+冠1.5h</t>
+  </si>
+  <si>
+    <t>冠+形1.5h</t>
+  </si>
+  <si>
+    <t>副词+介词1.5h</t>
+  </si>
+  <si>
+    <t>动词1.5h</t>
+  </si>
+  <si>
+    <t>3.5h</t>
+  </si>
+  <si>
+    <t>动词时态1.5h</t>
+  </si>
+  <si>
+    <t>动词语态1.5h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>非谓语动词1.5h</t>
+  </si>
+  <si>
+    <t>虚拟语气1.5h</t>
+  </si>
+  <si>
+    <t>虚拟语气2h</t>
+  </si>
+  <si>
+    <t>三大从句2h</t>
+  </si>
+  <si>
+    <t>历年真题1-58分</t>
+  </si>
+  <si>
+    <t>题型巩固 语法</t>
+  </si>
+  <si>
+    <t>强调句倒装句2h</t>
+  </si>
+  <si>
+    <t>事项</t>
+  </si>
+  <si>
+    <t>起床</t>
+  </si>
+  <si>
+    <t>9:30-11:30</t>
+  </si>
+  <si>
+    <t>学习2</t>
+  </si>
+  <si>
+    <t>11:00-11:15</t>
+  </si>
+  <si>
+    <t>洗漱</t>
+  </si>
+  <si>
+    <t>11:15-12:00</t>
+  </si>
+  <si>
+    <t>吃饭</t>
+  </si>
+  <si>
+    <t>11:30-13:30</t>
+  </si>
+  <si>
+    <t>做午餐</t>
+  </si>
+  <si>
+    <t>12:00-13:30</t>
+  </si>
+  <si>
+    <t>听力</t>
+  </si>
+  <si>
+    <t>13:30-17:30</t>
+  </si>
+  <si>
+    <t>学习4</t>
+  </si>
+  <si>
+    <t>13:30-19:00</t>
+  </si>
+  <si>
+    <t>上班</t>
+  </si>
+  <si>
+    <t>19:00-20:00</t>
+  </si>
+  <si>
+    <t>晚餐</t>
+  </si>
+  <si>
+    <t>20:00-21:00</t>
+  </si>
+  <si>
+    <t>21:00-22:00</t>
+  </si>
+  <si>
+    <t>17:30-19:00</t>
+  </si>
+  <si>
+    <t>运动</t>
+  </si>
+  <si>
+    <t>22:00-23:00</t>
+  </si>
+  <si>
+    <t>19:00-19:20</t>
+  </si>
+  <si>
+    <t>23:00-00:00</t>
+  </si>
+  <si>
+    <t>19:20-20:00</t>
+  </si>
+  <si>
+    <t>00:00-01:00</t>
+  </si>
+  <si>
+    <t>20:00-0</t>
+  </si>
+  <si>
+    <t>01:00-02:00</t>
+  </si>
+  <si>
+    <t>02:00-03:00</t>
+  </si>
+  <si>
+    <t>03:00-11:00</t>
+  </si>
+  <si>
+    <t>睡觉8h</t>
+  </si>
+  <si>
+    <t>0-1:00</t>
+  </si>
+  <si>
+    <t>背单词1</t>
+  </si>
+  <si>
+    <t>睡觉</t>
+  </si>
+  <si>
+    <t xml:space="preserve">关于2021年自考计算机科学与技术社会考生报考实践考核课程的通知
+各社会考生：
+我校2021年自考《计算机科学与技术》社会考生报考实践考核课程有关事项通知如下，请考生仔细阅读通知并严格按要求进行报考。
+一、报考时间
+2021年8月23日09:30-25日17:00，（上午9:30-11:30，下午14:30-17:00）
+二、报考条件
+1.计划申请深圳大学为毕业学校的社会考生；
+2.报名参加《计算机信息管理课程实验》科目者，需提供数据库系统原理、C++程序设计、软件开发工具三门课程合格成绩单；报名《管理信息系统》科目者，需提供管理信息系统笔试合格成绩单。
+3.笔试成绩以广东省自学考试管理系统中现可查到的为准。https://www.eeagd.edu.cn/zkselfec/login/login.jsp
+三、报考费：
+1.收费标准：按广东省自考委的规定标准执行，每科（次）37元（仅当次有效）。
+2.缴费方式：现场缴费签名确认。
+3.特别提醒：考生缴纳费用后不得办理退费手续，请缴费前慎重考虑。因疫情影响考试延期进行，考生顺延到对应的时间进行考试。
+四、报考方式：线上报考+现场报考（请在报考时间内按步骤做）
+第一步：下载报名表并填报考表见附件1。仔细阅读通知，确定报名后手写签字。报考表不能有涂改。
+第二步：打印考生信息简表，登录广东省自学考试管理系统http://www.stegd.edu.cn/selfec/login/login.jsp 下载。
+第三步：填写线上报名统计表。一个账号仅允许报考一人，QQ或微信扫一扫报考二维码，登录后填写并提交。填写内容将作为报考资格审核依据，请确保个人信息无误后再提交。【没有填写此文档视为报名无效】
+第四步：申请加QQ群（群号：562579046）深大计软社会实践（社会考生）。申请后，我办24小时内审核，请考生等待审核并留意通过情况。
+第五步：到自考办现场交报考费。通过入群当天请密切关注QQ群通知，查看自己是否具有参加实践考核的资格并留意QQ群通知。 
+携带报名资料包括：身份证复印件、考生信息简表、实践考核报名表等。
+   五、考试时间安排
+本科段科目：计算机科学与技术（专业代码：080901）
+科目
+考核时间
+考核地点
+管理信息系统
+2021年10月30日 9：30-11：30
+深圳大学沧海校区计软楼
+计算机信息管理课程实验
+2021年10月30日 14：30-16：30
+深圳大学沧海校区计软楼
+专科段科目：计算机信息管理（专业代码：A082207）
+科目
+考核时间
+考核地点
+计算机信息处理综合作业
+2021年10月31日 9：30-11：30
+深圳大学沧海校区计软楼
+计算机信息管理课程实验（一）
+2021年10月31日14：30-16：30
+深圳大学沧海校区计软楼
+   六、报考注意事项
+1.报名参加实践考核的同学务必在指定时间内参加实践考核考试并签到，迟到半小时未签到者，则视为放弃参加此次实践考核课程；
+2.考生必须确认报考后才能参加实践考核，若无确认报考但提交了实践考核作品，则作品无效，成绩无效；
+3.确认报考并缴费后，如因个人原因放弃报考或实践考核成绩未通过者，报考费用不予退还，下次报考时需缴纳补考费。
+七、成绩评定与查询
+考生提交的实践报告将由学院组织专业教师集体评定，评分标准为：0-不及格，1-合格，2-中等，3-良好，4-优秀。
+请考生于2021年12月中旬自行登录广东省自学考试管理系统查询成绩。省系统将于6月毕业申请前公布各科考核合格者成绩，请勿致电查询。
+省系统网址：https://www.eeagd.edu.cn/zkselfec/login/login.jsp
+八、联系我们
+办公电话：0755-86935701 
+办公时间：工作日09:00-11:30;14:00-17:00 
+办公地址：深圳大学计算机与软件学院119 办公室
+本次考试遵循广东省省高等教育自学考试考生防疫要求，严格遵守深圳大学疫情防控各项规定和要求，如果疫情不允许考试可能延期举行，请考生理解。
+附件：2021年深圳大学计软学院计科自考实践考核报名表 
+深圳大学计算机与软件学院
+2021年8月17日
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -643,12 +1040,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -712,9 +1103,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -728,14 +1118,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -756,24 +1147,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -795,14 +1171,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -810,16 +1178,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -833,18 +1194,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -855,8 +1231,23 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="43">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,13 +1256,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor rgb="FF58ED07"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,13 +1274,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="7" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF58ED07"/>
+        <fgColor theme="9" tint="0.6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,6 +1317,96 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,19 +1430,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,43 +1490,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -995,104 +1500,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="39">
+  <borders count="48">
     <border>
       <left/>
       <right/>
@@ -1101,13 +1510,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color auto="1"/>
       </top>
       <bottom style="thin">
@@ -1122,6 +1531,43 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="medium">
         <color auto="1"/>
       </top>
@@ -1134,7 +1580,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="medium">
@@ -1155,7 +1601,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="medium">
+      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1164,6 +1610,43 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1179,7 +1662,7 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color auto="1"/>
       </right>
       <top style="thin">
@@ -1188,6 +1671,119 @@
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1255,24 +1851,6 @@
       </left>
       <right/>
       <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color auto="1"/>
       </bottom>
@@ -1299,12 +1877,8 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1314,25 +1888,86 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
+      <top/>
+      <bottom style="medium">
         <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -1347,107 +1982,7 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
       <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -1460,62 +1995,8 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1539,7 +2020,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1558,8 +2039,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1578,6 +2089,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1586,10 +2106,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1598,519 +2118,738 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="41" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="34" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="39" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="38" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="37" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="36" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="201">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="15" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="16" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="11" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="10" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="15" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2456,960 +3195,996 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="105"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="94"/>
+      <c r="H1" s="93"/>
+      <c r="I1" s="94"/>
+      <c r="J1" s="178"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="95"/>
+      <c r="B2" s="96"/>
+      <c r="C2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="97" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="106"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="32">
+      <c r="A3" s="100">
         <v>80901</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="33" t="s">
+      <c r="B3" s="96"/>
+      <c r="C3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="31" t="s">
+      <c r="D3" s="96"/>
+      <c r="E3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="33" t="s">
+      <c r="F3" s="98"/>
+      <c r="G3" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="31" t="s">
+      <c r="H3" s="96"/>
+      <c r="I3" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="J3" s="106"/>
+      <c r="J3" s="179"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="104">
         <v>24</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="38">
+      <c r="E4" s="29">
         <v>2384</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="38">
+      <c r="G4" s="29">
         <v>2628</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="38">
+      <c r="I4" s="29">
         <v>15</v>
       </c>
-      <c r="J4" s="107" t="s">
+      <c r="J4" s="180" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="5" ht="32.4" spans="1:10">
-      <c r="A5" s="39"/>
-      <c r="B5" s="40"/>
-      <c r="C5" s="38">
+      <c r="A5" s="106"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="29">
         <v>910</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="38">
+      <c r="E5" s="29">
         <v>3709</v>
       </c>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="38">
+      <c r="G5" s="29">
         <v>3173</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="38">
+      <c r="I5" s="29">
         <v>2323</v>
       </c>
-      <c r="J5" s="107" t="s">
+      <c r="J5" s="180" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="24" spans="1:10">
-      <c r="A6" s="39"/>
-      <c r="B6" s="40"/>
-      <c r="C6" s="38">
+      <c r="A6" s="106"/>
+      <c r="B6" s="107"/>
+      <c r="C6" s="29">
         <v>2142</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="D6" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="38">
+      <c r="E6" s="29">
         <v>4735</v>
       </c>
-      <c r="F6" s="37" t="s">
+      <c r="F6" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="38">
+      <c r="G6" s="29">
         <v>4737</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="105" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="38">
+      <c r="I6" s="29">
         <v>2382</v>
       </c>
-      <c r="J6" s="107" t="s">
+      <c r="J6" s="180" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7" ht="21.6" spans="1:10">
-      <c r="A7" s="39"/>
-      <c r="B7" s="40"/>
-      <c r="C7" s="38">
+      <c r="A7" s="106"/>
+      <c r="B7" s="107"/>
+      <c r="C7" s="29">
         <v>2375</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="38">
+      <c r="E7" s="108"/>
+      <c r="F7" s="109"/>
+      <c r="G7" s="108"/>
+      <c r="H7" s="109"/>
+      <c r="I7" s="29">
         <v>4741</v>
       </c>
-      <c r="J7" s="107" t="s">
+      <c r="J7" s="180" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="21.6" spans="1:10">
-      <c r="A8" s="39"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="38">
+      <c r="A8" s="106"/>
+      <c r="B8" s="107"/>
+      <c r="C8" s="29">
         <v>2378</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="41"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="38">
+      <c r="E8" s="108"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="108"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="29">
         <v>4757</v>
       </c>
-      <c r="J8" s="107" t="s">
+      <c r="J8" s="180" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="9" ht="21.6" spans="1:10">
-      <c r="A9" s="39"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="38" t="s">
+      <c r="A9" s="106"/>
+      <c r="B9" s="107"/>
+      <c r="C9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="D9" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="41"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="108"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="108"/>
+      <c r="H9" s="109"/>
+      <c r="I9" s="108"/>
+      <c r="J9" s="181"/>
     </row>
     <row r="10" ht="15.15" spans="1:10">
-      <c r="A10" s="43"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45">
+      <c r="A10" s="110"/>
+      <c r="B10" s="111"/>
+      <c r="C10" s="112">
         <v>5679</v>
       </c>
-      <c r="D10" s="46" t="s">
+      <c r="D10" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="47"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="48"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="109"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="182"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="105"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="93"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="178"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="29" t="s">
+      <c r="A12" s="95"/>
+      <c r="B12" s="96"/>
+      <c r="C12" s="97" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="29" t="s">
+      <c r="D12" s="98"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="98"/>
+      <c r="G12" s="97" t="s">
         <v>28</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="106"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="99"/>
+      <c r="J12" s="179"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="32">
+      <c r="A13" s="100">
         <v>80901</v>
       </c>
-      <c r="B13" s="28"/>
-      <c r="C13" s="33" t="s">
+      <c r="B13" s="96"/>
+      <c r="C13" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="31" t="s">
+      <c r="D13" s="96"/>
+      <c r="E13" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="30"/>
-      <c r="G13" s="33" t="s">
+      <c r="F13" s="98"/>
+      <c r="G13" s="101" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="28"/>
-      <c r="I13" s="31" t="s">
+      <c r="H13" s="96"/>
+      <c r="I13" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="J13" s="106"/>
+      <c r="J13" s="179"/>
     </row>
     <row r="14" ht="21.6" spans="1:10">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="49" t="s">
+      <c r="B14" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="104">
         <v>24</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="105" t="s">
         <v>16</v>
       </c>
-      <c r="G14" s="38">
+      <c r="G14" s="29">
         <v>2384</v>
       </c>
-      <c r="H14" s="37" t="s">
+      <c r="H14" s="105" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="38">
+      <c r="I14" s="29">
         <v>15</v>
       </c>
-      <c r="J14" s="107" t="s">
+      <c r="J14" s="180" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" ht="21.6" spans="1:10">
-      <c r="A15" s="32"/>
-      <c r="B15" s="50"/>
-      <c r="C15" s="38">
+      <c r="A15" s="100"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="29">
         <v>910</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="42"/>
-      <c r="G15" s="38">
+      <c r="E15" s="108"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="29">
         <v>2628</v>
       </c>
-      <c r="H15" s="37" t="s">
+      <c r="H15" s="105" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="38">
+      <c r="I15" s="29">
         <v>2323</v>
       </c>
-      <c r="J15" s="107" t="s">
+      <c r="J15" s="180" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="21.6" spans="1:10">
-      <c r="A16" s="32"/>
-      <c r="B16" s="50"/>
-      <c r="C16" s="38">
+      <c r="A16" s="100"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="29">
         <v>2142</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="105" t="s">
         <v>15</v>
       </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="38">
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="29">
         <v>3173</v>
       </c>
-      <c r="H16" s="37" t="s">
+      <c r="H16" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="38">
+      <c r="I16" s="29">
         <v>2382</v>
       </c>
-      <c r="J16" s="107" t="s">
+      <c r="J16" s="180" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="17" ht="21.6" spans="1:10">
-      <c r="A17" s="32"/>
-      <c r="B17" s="50"/>
-      <c r="C17" s="38">
+      <c r="A17" s="100"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="29">
         <v>2375</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="105" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="41"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="38">
+      <c r="E17" s="108"/>
+      <c r="F17" s="109"/>
+      <c r="G17" s="29">
         <v>3708</v>
       </c>
-      <c r="H17" s="37" t="s">
+      <c r="H17" s="105" t="s">
         <v>24</v>
       </c>
-      <c r="I17" s="38">
+      <c r="I17" s="29">
         <v>4741</v>
       </c>
-      <c r="J17" s="107" t="s">
+      <c r="J17" s="180" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" ht="21.6" spans="1:10">
-      <c r="A18" s="32"/>
-      <c r="B18" s="50"/>
-      <c r="C18" s="38">
+      <c r="A18" s="100"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="29">
         <v>2378</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="105" t="s">
         <v>21</v>
       </c>
-      <c r="E18" s="41"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="38">
+      <c r="E18" s="108"/>
+      <c r="F18" s="109"/>
+      <c r="G18" s="29">
         <v>4737</v>
       </c>
-      <c r="H18" s="37" t="s">
+      <c r="H18" s="105" t="s">
         <v>31</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="29">
         <v>4757</v>
       </c>
-      <c r="J18" s="107" t="s">
+      <c r="J18" s="180" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="19" ht="32.4" spans="1:10">
-      <c r="A19" s="32"/>
-      <c r="B19" s="50"/>
-      <c r="C19" s="38">
+      <c r="A19" s="100"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="29">
         <v>3709</v>
       </c>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="181"/>
     </row>
     <row r="20" ht="15.15" spans="1:10">
-      <c r="A20" s="51"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="45">
+      <c r="A20" s="118"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="112">
         <v>5679</v>
       </c>
-      <c r="D20" s="46" t="s">
+      <c r="D20" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="48"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="48"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="110"/>
+      <c r="E20" s="114"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="114"/>
+      <c r="J20" s="183"/>
     </row>
     <row r="21" ht="15.15" spans="1:10">
-      <c r="A21" s="53"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="111"/>
+      <c r="A21" s="120"/>
+      <c r="B21" s="121"/>
+      <c r="C21" s="122"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="123"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="123"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="184"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="58" t="s">
+      <c r="A22" s="125" t="s">
         <v>32</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="112"/>
+      <c r="B22" s="126"/>
+      <c r="C22" s="126"/>
+      <c r="D22" s="126"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="126"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="126"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="185"/>
     </row>
     <row r="23" ht="21.6" spans="1:10">
-      <c r="A23" s="60" t="s">
+      <c r="A23" s="127" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="128" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="61" t="s">
+      <c r="C23" s="128" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
-      <c r="G23" s="61" t="s">
+      <c r="D23" s="128"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128" t="s">
         <v>36</v>
       </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
-      <c r="J23" s="113"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="186"/>
     </row>
     <row r="24" ht="21.6" spans="1:10">
-      <c r="A24" s="60" t="s">
+      <c r="A24" s="127" t="s">
         <v>37</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="128" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62" t="s">
+      <c r="D24" s="129"/>
+      <c r="E24" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62" t="s">
+      <c r="F24" s="129"/>
+      <c r="G24" s="129" t="s">
         <v>39</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62" t="s">
+      <c r="H24" s="129"/>
+      <c r="I24" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="J24" s="114"/>
+      <c r="J24" s="187"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="63"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="61" t="s">
+      <c r="A25" s="130"/>
+      <c r="B25" s="131"/>
+      <c r="C25" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="61" t="s">
+      <c r="E25" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="F25" s="61" t="s">
+      <c r="F25" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="61" t="s">
+      <c r="G25" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="H25" s="61" t="s">
+      <c r="H25" s="128" t="s">
         <v>42</v>
       </c>
-      <c r="I25" s="61" t="s">
+      <c r="I25" s="128" t="s">
         <v>41</v>
       </c>
-      <c r="J25" s="113" t="s">
+      <c r="J25" s="186" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="26" ht="21.6" spans="1:10">
-      <c r="A26" s="65" t="s">
+      <c r="A26" s="132" t="s">
         <v>43</v>
       </c>
-      <c r="B26" s="66" t="s">
+      <c r="B26" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="66">
+      <c r="C26" s="133">
         <v>11399</v>
       </c>
-      <c r="D26" s="67" t="s">
+      <c r="D26" s="134" t="s">
         <v>45</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="133">
         <v>8674</v>
       </c>
-      <c r="F26" s="67" t="s">
+      <c r="F26" s="134" t="s">
         <v>46</v>
       </c>
-      <c r="G26" s="66">
+      <c r="G26" s="133">
         <v>3703</v>
       </c>
-      <c r="H26" s="67" t="s">
+      <c r="H26" s="134" t="s">
         <v>47</v>
       </c>
-      <c r="I26" s="115">
+      <c r="I26" s="188">
         <v>2376</v>
       </c>
-      <c r="J26" s="116" t="s">
+      <c r="J26" s="189" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="27" ht="22.35" spans="1:10">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="135" t="s">
         <v>49</v>
       </c>
-      <c r="B27" s="69" t="s">
+      <c r="B27" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C27" s="69"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="69"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="118"/>
+      <c r="C27" s="136"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="136"/>
+      <c r="F27" s="137"/>
+      <c r="G27" s="136"/>
+      <c r="H27" s="137"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="191"/>
     </row>
     <row r="28" ht="15.15" spans="1:10">
-      <c r="A28" s="71"/>
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="72"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="72"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="72"/>
+      <c r="A28" s="138"/>
+      <c r="B28" s="138"/>
+      <c r="C28" s="138"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="138"/>
+      <c r="J28" s="139"/>
     </row>
     <row r="29" ht="15.6" spans="1:10">
-      <c r="A29" s="73" t="s">
+      <c r="A29" s="140" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75" t="s">
+      <c r="B29" s="141"/>
+      <c r="C29" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="75" t="s">
+      <c r="D29" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="75" t="s">
+      <c r="E29" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="F29" s="75" t="s">
+      <c r="F29" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="G29" s="75" t="s">
+      <c r="G29" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="H29" s="75" t="s">
+      <c r="H29" s="142" t="s">
         <v>52</v>
       </c>
-      <c r="I29" s="75" t="s">
+      <c r="I29" s="142" t="s">
         <v>51</v>
       </c>
-      <c r="J29" s="119" t="s">
+      <c r="J29" s="192" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="30" ht="32.4" spans="1:10">
-      <c r="A30" s="76">
+      <c r="A30" s="143">
         <v>44044</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="38" t="s">
+      <c r="B30" s="96"/>
+      <c r="C30" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D30" s="77" t="s">
+      <c r="D30" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="38" t="s">
+      <c r="E30" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="F30" s="78" t="s">
+      <c r="F30" s="144" t="s">
         <v>12</v>
       </c>
-      <c r="G30" s="38" t="s">
+      <c r="G30" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="H30" s="78" t="s">
+      <c r="H30" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="I30" s="38" t="s">
+      <c r="I30" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="J30" s="120" t="s">
+      <c r="J30" s="193" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="31" ht="21.6" spans="1:10">
-      <c r="A31" s="76">
+      <c r="A31" s="143">
         <v>44105</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="38" t="s">
+      <c r="B31" s="96"/>
+      <c r="C31" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D31" s="77" t="s">
+      <c r="D31" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="38" t="s">
+      <c r="E31" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="F31" s="77" t="s">
+      <c r="F31" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="38" t="s">
+      <c r="G31" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="77" t="s">
+      <c r="H31" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="121" t="s">
+      <c r="J31" s="194" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="76">
+      <c r="A32" s="143">
         <v>44140</v>
       </c>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="81" t="s">
+      <c r="B32" s="145"/>
+      <c r="C32" s="146"/>
+      <c r="D32" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="28"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="122"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="96"/>
+      <c r="G32" s="101"/>
+      <c r="H32" s="96"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="195"/>
     </row>
     <row r="33" ht="21.6" spans="1:10">
-      <c r="A33" s="76">
+      <c r="A33" s="143">
         <v>44206</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="28"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="28"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="28"/>
-      <c r="I33" s="123" t="s">
+      <c r="B33" s="96"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="101"/>
+      <c r="H33" s="96"/>
+      <c r="I33" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="J33" s="121" t="s">
+      <c r="J33" s="194" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="82">
+      <c r="A34" s="148">
         <v>44256</v>
       </c>
-      <c r="B34" s="83"/>
-      <c r="C34" s="84" t="s">
+      <c r="B34" s="149"/>
+      <c r="C34" s="150" t="s">
         <v>63</v>
       </c>
-      <c r="D34" s="85">
+      <c r="D34" s="151">
         <v>44283</v>
       </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="28"/>
-      <c r="G34" s="33"/>
-      <c r="H34" s="28"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="107"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="96"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="96"/>
+      <c r="I34" s="197"/>
+      <c r="J34" s="180"/>
     </row>
     <row r="35" ht="21.6" spans="1:10">
-      <c r="A35" s="76">
+      <c r="A35" s="143">
         <v>44287</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="38" t="s">
+      <c r="B35" s="96"/>
+      <c r="C35" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="D35" s="77" t="s">
+      <c r="D35" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="28"/>
-      <c r="G35" s="38" t="s">
+      <c r="E35" s="101"/>
+      <c r="F35" s="96"/>
+      <c r="G35" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="H35" s="77" t="s">
+      <c r="H35" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="I35" s="38" t="s">
+      <c r="I35" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="121" t="s">
+      <c r="J35" s="194" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="76">
+      <c r="A36" s="143">
         <v>44378</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="86">
+      <c r="B36" s="96"/>
+      <c r="C36" s="152">
         <v>11393</v>
       </c>
-      <c r="D36" s="87" t="s">
+      <c r="D36" s="153" t="s">
         <v>67</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="28"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="36"/>
-      <c r="J36" s="107"/>
+      <c r="E36" s="101"/>
+      <c r="F36" s="96"/>
+      <c r="G36" s="104"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="104"/>
+      <c r="J36" s="180"/>
     </row>
     <row r="37" ht="21.6" spans="1:10">
-      <c r="A37" s="76">
+      <c r="A37" s="143">
         <v>44470</v>
       </c>
-      <c r="B37" s="28"/>
-      <c r="C37" s="38" t="s">
+      <c r="B37" s="96"/>
+      <c r="C37" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D37" s="77" t="s">
+      <c r="D37" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="33"/>
-      <c r="F37" s="28"/>
-      <c r="G37" s="33"/>
-      <c r="H37" s="28"/>
-      <c r="I37" s="38" t="s">
+      <c r="E37" s="101"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="J37" s="120" t="s">
+      <c r="J37" s="193" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="38" ht="21.6" spans="1:10">
-      <c r="A38" s="76">
+      <c r="A38" s="143">
         <v>44571</v>
       </c>
-      <c r="B38" s="28"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="28"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="28"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="28"/>
-      <c r="I38" s="123" t="s">
+      <c r="B38" s="96"/>
+      <c r="C38" s="101"/>
+      <c r="D38" s="96"/>
+      <c r="E38" s="101"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="101"/>
+      <c r="H38" s="96"/>
+      <c r="I38" s="196" t="s">
         <v>62</v>
       </c>
-      <c r="J38" s="125" t="s">
+      <c r="J38" s="198" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="39" ht="21.6" spans="1:10">
-      <c r="A39" s="76">
+      <c r="A39" s="143">
         <v>44652</v>
       </c>
-      <c r="B39" s="28"/>
-      <c r="C39" s="38" t="s">
+      <c r="B39" s="96"/>
+      <c r="C39" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="88"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="28"/>
-      <c r="I39" s="38" t="s">
+      <c r="E39" s="154"/>
+      <c r="F39" s="153"/>
+      <c r="G39" s="101"/>
+      <c r="H39" s="96"/>
+      <c r="I39" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="120" t="s">
+      <c r="J39" s="193" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="76">
+      <c r="A40" s="143">
         <v>44713</v>
       </c>
-      <c r="B40" s="28"/>
-      <c r="C40" s="86" t="s">
+      <c r="B40" s="96"/>
+      <c r="C40" s="152" t="s">
         <v>72</v>
       </c>
-      <c r="D40" s="89" t="s">
+      <c r="D40" s="155" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="33"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="88"/>
-      <c r="H40" s="89"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="122"/>
+      <c r="E40" s="101"/>
+      <c r="F40" s="96"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="101"/>
+      <c r="J40" s="195"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="76">
+      <c r="A41" s="143">
         <v>44897</v>
       </c>
-      <c r="B41" s="28"/>
-      <c r="C41" s="90" t="s">
+      <c r="B41" s="96"/>
+      <c r="C41" s="156" t="s">
         <v>74</v>
       </c>
-      <c r="D41" s="91">
+      <c r="D41" s="157">
         <v>44896</v>
       </c>
-      <c r="E41" s="86" t="s">
+      <c r="E41" s="152" t="s">
         <v>75</v>
       </c>
-      <c r="F41" s="91">
+      <c r="F41" s="157">
         <v>44896</v>
       </c>
-      <c r="G41" s="90" t="s">
+      <c r="G41" s="156" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="91">
+      <c r="H41" s="157">
         <v>44896</v>
       </c>
-      <c r="I41" s="33"/>
-      <c r="J41" s="122"/>
+      <c r="I41" s="101"/>
+      <c r="J41" s="195"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="76">
+      <c r="A42" s="143">
         <v>45080</v>
       </c>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="91"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="88"/>
-      <c r="H42" s="89"/>
-      <c r="I42" s="33"/>
-      <c r="J42" s="122"/>
+      <c r="B42" s="96"/>
+      <c r="C42" s="96"/>
+      <c r="D42" s="157"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="101"/>
+      <c r="J42" s="195"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="76"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="89"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="88"/>
-      <c r="H43" s="89"/>
-      <c r="I43" s="33"/>
-      <c r="J43" s="122"/>
+      <c r="A43" s="143"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="101"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="101"/>
+      <c r="J43" s="195"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="86" t="s">
+      <c r="A44" s="95"/>
+      <c r="B44" s="96"/>
+      <c r="C44" s="152" t="s">
         <v>77</v>
       </c>
-      <c r="D44" s="94" t="s">
+      <c r="D44" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="95"/>
-      <c r="G44" s="96" t="s">
+      <c r="E44" s="101"/>
+      <c r="F44" s="161"/>
+      <c r="G44" s="162" t="s">
         <v>79</v>
       </c>
-      <c r="H44" s="97" t="s">
+      <c r="H44" s="163" t="s">
         <v>18</v>
       </c>
-      <c r="I44" s="126" t="s">
+      <c r="I44" s="199" t="s">
         <v>80</v>
       </c>
-      <c r="J44" s="122"/>
+      <c r="J44" s="195"/>
     </row>
     <row r="45" ht="22.35" spans="1:10">
-      <c r="A45" s="98"/>
-      <c r="B45" s="99"/>
-      <c r="C45" s="100"/>
-      <c r="D45" s="101" t="s">
+      <c r="A45" s="164"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="166"/>
+      <c r="D45" s="167" t="s">
         <v>81</v>
       </c>
-      <c r="E45" s="102"/>
-      <c r="F45" s="99"/>
-      <c r="G45" s="103" t="s">
+      <c r="E45" s="168"/>
+      <c r="F45" s="165"/>
+      <c r="G45" s="169" t="s">
         <v>82</v>
       </c>
-      <c r="H45" s="104" t="s">
+      <c r="H45" s="170" t="s">
         <v>18</v>
       </c>
-      <c r="I45" s="103" t="s">
+      <c r="I45" s="169" t="s">
         <v>83</v>
       </c>
-      <c r="J45" s="127" t="s">
+      <c r="J45" s="200" t="s">
         <v>22</v>
       </c>
     </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="171" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="172"/>
+      <c r="C48" s="172"/>
+      <c r="D48" s="172"/>
+      <c r="E48" s="172"/>
+      <c r="F48" s="172"/>
+      <c r="G48" s="172"/>
+      <c r="H48" s="173"/>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="174"/>
+    </row>
+    <row r="50" ht="15.15" spans="1:8">
+      <c r="A50" s="175" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="176"/>
+      <c r="C50" s="176"/>
+      <c r="D50" s="176"/>
+      <c r="E50" s="176"/>
+      <c r="F50" s="176"/>
+      <c r="G50" s="176"/>
+      <c r="H50" s="177"/>
+    </row>
   </sheetData>
-  <mergeCells count="50">
+  <mergeCells count="53">
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="C2:F2"/>
     <mergeCell ref="G2:J2"/>
@@ -3448,6 +4223,9 @@
     <mergeCell ref="A43:B43"/>
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A49:H49"/>
+    <mergeCell ref="A50:H50"/>
     <mergeCell ref="A4:A10"/>
     <mergeCell ref="A14:A20"/>
     <mergeCell ref="B4:B10"/>
@@ -3472,474 +4250,474 @@
   <sheetPr/>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="20.2592592592593" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9" style="69"/>
+    <col min="3" max="3" width="20.2592592592593" style="69" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="69"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A2" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A3" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="8" t="s">
+    <row r="1" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A1" s="70" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="72"/>
+    </row>
+    <row r="2" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A2" s="73" t="s">
+        <v>88</v>
+      </c>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="75"/>
+    </row>
+    <row r="3" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A3" s="76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B3" s="76" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="76" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A4" s="9">
+      <c r="D3" s="76" t="s">
+        <v>91</v>
+      </c>
+      <c r="E3" s="76" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A4" s="77">
         <v>1</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="77">
         <v>3708</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="77">
         <v>2</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A5" s="9">
+      <c r="E4" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A5" s="77">
         <v>2</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="77">
         <v>3709</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="77">
         <v>4</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="6" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A6" s="9">
+      <c r="E5" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A6" s="77">
         <v>3</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="77">
         <v>15</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="78" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="77">
         <v>14</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A7" s="9">
+      <c r="E6" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A7" s="77">
         <v>4</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="77">
         <v>2628</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="78" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="77">
         <v>5</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="8" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A8" s="9">
+      <c r="E7" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A8" s="77">
         <v>5</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="77">
         <v>910</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="77">
         <v>6</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A9" s="9">
+      <c r="E8" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A9" s="77">
         <v>6</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="77">
         <v>2375</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="77">
         <v>4</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A10" s="9">
+      <c r="E9" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A10" s="77">
         <v>7</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="77">
         <v>2323</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="77">
         <v>4</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="11" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A11" s="9">
+      <c r="E10" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A11" s="77">
         <v>8</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="77">
         <v>2142</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="77">
         <v>4</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="12" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A12" s="9">
+      <c r="E11" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A12" s="77">
         <v>9</v>
       </c>
-      <c r="B12" s="9">
+      <c r="B12" s="77">
         <v>4735</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="9">
+      <c r="D12" s="77">
         <v>4</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A13" s="9">
+      <c r="E12" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A13" s="77">
         <v>10</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="77">
         <v>4741</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="77">
         <v>4</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="14" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A14" s="9">
+      <c r="E13" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F13" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="14" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A14" s="77">
         <v>11</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="77">
         <v>4737</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="80" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="77">
+        <v>3</v>
+      </c>
+      <c r="E14" s="79" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="9">
-        <v>3</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="15" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A15" s="9">
+      <c r="F14" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A15" s="77">
         <v>12</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="77">
         <v>3173</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="C15" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="77">
         <v>5</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F15" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A16" s="9">
+      <c r="E15" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F15" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A16" s="77">
         <v>13</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="77">
         <v>4757</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="77">
         <v>5</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A17" s="9">
+      <c r="E16" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A17" s="77">
         <v>14</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="77">
         <v>2378</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="77">
         <v>4</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="18" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A18" s="9">
+      <c r="E17" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="79" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A18" s="77">
         <v>15</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="77">
         <v>11393</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="77">
         <v>5</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="E18" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A19" s="77">
+        <v>16</v>
+      </c>
+      <c r="B19" s="77">
+        <v>7999</v>
+      </c>
+      <c r="C19" s="78" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19" s="79" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="79" t="s">
+        <v>94</v>
+      </c>
+      <c r="F19" s="79" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A20" s="77">
+        <v>201</v>
+      </c>
+      <c r="B20" s="77">
+        <v>2382</v>
+      </c>
+      <c r="C20" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="77">
+        <v>4</v>
+      </c>
+      <c r="E20" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="79" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="19" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A19" s="9">
-        <v>16</v>
-      </c>
-      <c r="B19" s="9">
-        <v>7999</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="11" t="s">
+    <row r="21" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A21" s="77"/>
+      <c r="B21" s="77">
+        <v>2383</v>
+      </c>
+      <c r="C21" s="78" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="77">
+        <v>1</v>
+      </c>
+      <c r="E21" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F21" s="81" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A22" s="77">
+        <v>202</v>
+      </c>
+      <c r="B22" s="77">
+        <v>2384</v>
+      </c>
+      <c r="C22" s="78" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="77">
+        <v>4</v>
+      </c>
+      <c r="E22" s="79" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22" s="79" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="20" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A20" s="9">
-        <v>201</v>
-      </c>
-      <c r="B20" s="9">
-        <v>2382</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="9">
-        <v>4</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A21" s="9"/>
-      <c r="B21" s="9">
-        <v>2383</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="9">
-        <v>1</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="13" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="22" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A22" s="9">
-        <v>202</v>
-      </c>
-      <c r="B22" s="9">
-        <v>2384</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="9">
-        <v>4</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" s="1" customFormat="1" ht="22" customHeight="1" spans="1:6">
-      <c r="A23" s="14" t="s">
-        <v>98</v>
-      </c>
-      <c r="B23" s="14"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="14"/>
-      <c r="F23" s="14"/>
-    </row>
-    <row r="24" s="1" customFormat="1" ht="14.25" customHeight="1" spans="1:6">
-      <c r="A24" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="16"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-    </row>
-    <row r="25" s="1" customFormat="1" ht="48" customHeight="1" spans="1:6">
-      <c r="A25" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="20"/>
-    </row>
-    <row r="26" s="1" customFormat="1" ht="15" customHeight="1" spans="1:6">
-      <c r="A26" s="21" t="s">
+    <row r="23" s="69" customFormat="1" ht="22" customHeight="1" spans="1:6">
+      <c r="A23" s="82" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="23"/>
+      <c r="B23" s="82"/>
+      <c r="C23" s="82"/>
+      <c r="D23" s="82"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+    </row>
+    <row r="24" s="69" customFormat="1" ht="14.25" customHeight="1" spans="1:6">
+      <c r="A24" s="83" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="84"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="85"/>
+    </row>
+    <row r="25" s="69" customFormat="1" ht="48" customHeight="1" spans="1:6">
+      <c r="A25" s="86" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="87"/>
+      <c r="C25" s="87"/>
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="88"/>
+    </row>
+    <row r="26" s="69" customFormat="1" ht="15" customHeight="1" spans="1:6">
+      <c r="A26" s="89" t="s">
+        <v>104</v>
+      </c>
+      <c r="B26" s="90"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3958,4 +4736,2960 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="18.6296296296296" style="3" customWidth="1"/>
+    <col min="2" max="2" width="4.37962962962963" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="4.25925925925926" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="4.25925925925926" style="3" customWidth="1"/>
+    <col min="7" max="7" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="8" max="8" width="4.25925925925926" style="3" customWidth="1"/>
+    <col min="9" max="9" width="12.6296296296296" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.8796296296296" style="3" customWidth="1"/>
+    <col min="12" max="12" width="17.2592592592593" style="3" customWidth="1"/>
+    <col min="13" max="13" width="19.2592592592593" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A1" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48" t="s">
+        <v>106</v>
+      </c>
+      <c r="K1" s="49"/>
+    </row>
+    <row r="2" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A2" s="21"/>
+      <c r="B2" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="26" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="6"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="K2" s="51"/>
+    </row>
+    <row r="3" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A3" s="21"/>
+      <c r="B3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6"/>
+      <c r="H3" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" s="51"/>
+    </row>
+    <row r="4" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A4" s="21"/>
+      <c r="B4" s="27">
+        <v>2142</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="29">
+        <v>4735</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="29">
+        <v>4737</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="29">
+        <v>2323</v>
+      </c>
+      <c r="I4" s="52" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A5" s="30"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="26"/>
+      <c r="G5" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" s="26"/>
+      <c r="I5" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="J5" s="55" t="s">
+        <v>113</v>
+      </c>
+      <c r="K5" s="56"/>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A6" s="31">
+        <v>44080</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="9">
+        <v>12</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="32"/>
+      <c r="K6" s="57"/>
+    </row>
+    <row r="7" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A7" s="31">
+        <v>44081</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="57"/>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A8" s="31">
+        <v>44082</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="H8" s="6"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="57"/>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A9" s="31">
+        <v>44083</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="33" t="s">
+        <v>117</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="57"/>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A10" s="31">
+        <v>44084</v>
+      </c>
+      <c r="B10" s="32"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="57"/>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A11" s="31">
+        <v>44085</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="57"/>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A12" s="31">
+        <v>44086</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>121</v>
+      </c>
+      <c r="H12" s="6"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="57"/>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A13" s="31">
+        <v>44087</v>
+      </c>
+      <c r="B13" s="32"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="32"/>
+      <c r="K13" s="57"/>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A14" s="31">
+        <v>44088</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="57"/>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A15" s="31">
+        <v>44089</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="6"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="57"/>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A16" s="31">
+        <v>44090</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="57"/>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A17" s="31">
+        <v>44091</v>
+      </c>
+      <c r="B17" s="32"/>
+      <c r="C17" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="35" t="s">
+        <v>127</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="57"/>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A18" s="31">
+        <v>44092</v>
+      </c>
+      <c r="B18" s="32">
+        <v>11</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="57"/>
+    </row>
+    <row r="19" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A19" s="31">
+        <v>44093</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="57"/>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A20" s="31">
+        <v>44094</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="57"/>
+    </row>
+    <row r="21" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A21" s="31">
+        <v>44095</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="D21" s="6"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="32"/>
+      <c r="K21" s="57"/>
+    </row>
+    <row r="22" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A22" s="31">
+        <v>44096</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="D22" s="6"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="32"/>
+      <c r="K22" s="57"/>
+    </row>
+    <row r="23" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A23" s="31">
+        <v>44097</v>
+      </c>
+      <c r="B23" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D23" s="6"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="57"/>
+    </row>
+    <row r="24" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A24" s="31">
+        <v>44098</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="D24" s="6"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="57"/>
+    </row>
+    <row r="25" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A25" s="31">
+        <v>44099</v>
+      </c>
+      <c r="B25" s="32"/>
+      <c r="C25" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="6"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="32"/>
+      <c r="K25" s="57"/>
+    </row>
+    <row r="26" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A26" s="31">
+        <v>44100</v>
+      </c>
+      <c r="B26" s="32"/>
+      <c r="C26" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="6"/>
+      <c r="E26" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="32"/>
+      <c r="K26" s="57"/>
+    </row>
+    <row r="27" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A27" s="31">
+        <v>44101</v>
+      </c>
+      <c r="B27" s="32"/>
+      <c r="C27" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="33" t="s">
+        <v>138</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="32"/>
+      <c r="K27" s="57"/>
+    </row>
+    <row r="28" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A28" s="31">
+        <v>44102</v>
+      </c>
+      <c r="B28" s="32"/>
+      <c r="C28" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="D28" s="6"/>
+      <c r="E28" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="58"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="57"/>
+    </row>
+    <row r="29" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A29" s="31">
+        <v>44103</v>
+      </c>
+      <c r="B29" s="32"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="33" t="s">
+        <v>139</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="58"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="57"/>
+    </row>
+    <row r="30" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A30" s="31">
+        <v>44104</v>
+      </c>
+      <c r="B30" s="32"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="58"/>
+      <c r="J30" s="32"/>
+      <c r="K30" s="57"/>
+    </row>
+    <row r="31" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A31" s="31">
+        <v>44105</v>
+      </c>
+      <c r="B31" s="32"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="32"/>
+      <c r="K31" s="57"/>
+    </row>
+    <row r="32" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A32" s="31">
+        <v>44106</v>
+      </c>
+      <c r="B32" s="32"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="34" t="s">
+        <v>135</v>
+      </c>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="58"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="57"/>
+    </row>
+    <row r="33" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A33" s="31">
+        <v>44107</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="E33" s="34" t="s">
+        <v>136</v>
+      </c>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="58"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="57"/>
+    </row>
+    <row r="34" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A34" s="31">
+        <v>44108</v>
+      </c>
+      <c r="B34" s="32"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="58"/>
+      <c r="J34" s="32"/>
+      <c r="K34" s="57"/>
+    </row>
+    <row r="35" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A35" s="31">
+        <v>44109</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="58"/>
+      <c r="J35" s="32"/>
+      <c r="K35" s="57"/>
+    </row>
+    <row r="36" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A36" s="31">
+        <v>44110</v>
+      </c>
+      <c r="B36" s="32"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="50"/>
+      <c r="J36" s="32"/>
+      <c r="K36" s="57"/>
+    </row>
+    <row r="37" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A37" s="31">
+        <v>44111</v>
+      </c>
+      <c r="B37" s="32"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="37"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="6">
+        <v>9</v>
+      </c>
+      <c r="I37" s="59" t="s">
+        <v>141</v>
+      </c>
+      <c r="J37" s="32"/>
+      <c r="K37" s="57"/>
+    </row>
+    <row r="38" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A38" s="31">
+        <v>44112</v>
+      </c>
+      <c r="B38" s="32"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" s="32"/>
+      <c r="K38" s="57"/>
+    </row>
+    <row r="39" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A39" s="31">
+        <v>44113</v>
+      </c>
+      <c r="B39" s="32"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J39" s="32"/>
+      <c r="K39" s="57"/>
+    </row>
+    <row r="40" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A40" s="31">
+        <v>44114</v>
+      </c>
+      <c r="B40" s="32"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J40" s="32"/>
+      <c r="K40" s="57"/>
+    </row>
+    <row r="41" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A41" s="31">
+        <v>44115</v>
+      </c>
+      <c r="B41" s="32"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="59" t="s">
+        <v>139</v>
+      </c>
+      <c r="J41" s="32"/>
+      <c r="K41" s="57"/>
+    </row>
+    <row r="42" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A42" s="31">
+        <v>44116</v>
+      </c>
+      <c r="B42" s="32"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="60" t="s">
+        <v>120</v>
+      </c>
+      <c r="J42" s="32"/>
+      <c r="K42" s="57"/>
+    </row>
+    <row r="43" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A43" s="31">
+        <v>44117</v>
+      </c>
+      <c r="B43" s="32"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="59">
+        <v>201904</v>
+      </c>
+      <c r="J43" s="32"/>
+      <c r="K43" s="57"/>
+    </row>
+    <row r="44" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A44" s="31">
+        <v>44118</v>
+      </c>
+      <c r="B44" s="32"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="59">
+        <v>201810</v>
+      </c>
+      <c r="J44" s="32"/>
+      <c r="K44" s="57"/>
+    </row>
+    <row r="45" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A45" s="31">
+        <v>44119</v>
+      </c>
+      <c r="B45" s="39"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="H45" s="12"/>
+      <c r="I45" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="J45" s="32"/>
+      <c r="K45" s="57"/>
+    </row>
+    <row r="46" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A46" s="31">
+        <v>44120</v>
+      </c>
+      <c r="B46" s="40"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46" s="32"/>
+      <c r="K46" s="57"/>
+    </row>
+    <row r="47" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A47" s="31">
+        <v>44121</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="61" t="s">
+        <v>145</v>
+      </c>
+      <c r="J47" s="32"/>
+      <c r="K47" s="57"/>
+    </row>
+    <row r="48" s="3" customFormat="1" ht="18" customHeight="1" spans="1:11">
+      <c r="A48" s="43">
+        <v>44122</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="44" t="s">
+        <v>142</v>
+      </c>
+      <c r="H48" s="12"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="63"/>
+    </row>
+    <row r="49" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A49" s="45">
+        <v>44123</v>
+      </c>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="47"/>
+      <c r="J49" s="64" t="s">
+        <v>146</v>
+      </c>
+      <c r="K49" s="65" t="s">
+        <v>147</v>
+      </c>
+      <c r="L49" s="23"/>
+      <c r="M49" s="49"/>
+    </row>
+    <row r="50" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A50" s="46">
+        <v>44124</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="50"/>
+      <c r="J50" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K50" s="9"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="51"/>
+    </row>
+    <row r="51" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A51" s="46">
+        <v>44125</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="50"/>
+      <c r="J51" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="K51" s="3"/>
+      <c r="L51" s="6"/>
+      <c r="M51" s="51"/>
+    </row>
+    <row r="52" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A52" s="46">
+        <v>44126</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="50"/>
+      <c r="J52" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="K52" s="9"/>
+      <c r="L52" s="6"/>
+      <c r="M52" s="51"/>
+    </row>
+    <row r="53" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A53" s="46">
+        <v>44127</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="I53" s="50" t="s">
+        <v>151</v>
+      </c>
+      <c r="J53" s="34" t="s">
+        <v>152</v>
+      </c>
+      <c r="K53" s="34" t="s">
+        <v>153</v>
+      </c>
+      <c r="L53" s="6"/>
+      <c r="M53" s="51"/>
+    </row>
+    <row r="54" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A54" s="46">
+        <v>44128</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="J54" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="K54" s="6"/>
+      <c r="L54" s="6"/>
+      <c r="M54" s="51"/>
+    </row>
+    <row r="55" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A55" s="46">
+        <v>44129</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I55" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="J55" s="34" t="s">
+        <v>155</v>
+      </c>
+      <c r="K55" s="34" t="s">
+        <v>156</v>
+      </c>
+      <c r="L55" s="6"/>
+      <c r="M55" s="51"/>
+    </row>
+    <row r="56" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A56" s="46">
+        <v>44130</v>
+      </c>
+      <c r="B56" s="6"/>
+      <c r="C56" s="6"/>
+      <c r="D56" s="6"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I56" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="J56" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="K56" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="L56" s="6"/>
+      <c r="M56" s="51"/>
+    </row>
+    <row r="57" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A57" s="46">
+        <v>44131</v>
+      </c>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="D57" s="6"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I57" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="J57" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="K57" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="L57" s="6"/>
+      <c r="M57" s="51"/>
+    </row>
+    <row r="58" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A58" s="46">
+        <v>44132</v>
+      </c>
+      <c r="B58" s="6"/>
+      <c r="C58" s="6"/>
+      <c r="D58" s="6"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I58" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="J58" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="K58" s="3"/>
+      <c r="L58" s="6"/>
+      <c r="M58" s="51"/>
+    </row>
+    <row r="59" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A59" s="46">
+        <v>44133</v>
+      </c>
+      <c r="B59" s="6"/>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I59" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="J59" s="3"/>
+      <c r="K59" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="L59" s="6"/>
+      <c r="M59" s="51"/>
+    </row>
+    <row r="60" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A60" s="46">
+        <v>44134</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="6"/>
+      <c r="D60" s="6"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I60" s="50" t="s">
+        <v>162</v>
+      </c>
+      <c r="J60" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="K60" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="L60" s="6"/>
+      <c r="M60" s="51"/>
+    </row>
+    <row r="61" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A61" s="46">
+        <v>44135</v>
+      </c>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="50" t="s">
+        <v>165</v>
+      </c>
+      <c r="J61" s="3"/>
+      <c r="K61" s="3"/>
+      <c r="L61" s="6"/>
+      <c r="M61" s="51"/>
+    </row>
+    <row r="62" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A62" s="46">
+        <v>44136</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62" s="50" t="s">
+        <v>166</v>
+      </c>
+      <c r="J62" s="3"/>
+      <c r="K62" s="3"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="51"/>
+    </row>
+    <row r="63" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A63" s="46">
+        <v>44137</v>
+      </c>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="6"/>
+      <c r="I63" s="50"/>
+      <c r="J63" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="K63" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="L63" s="6"/>
+      <c r="M63" s="51"/>
+    </row>
+    <row r="64" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A64" s="46">
+        <v>44138</v>
+      </c>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="6"/>
+      <c r="I64" s="50"/>
+      <c r="J64" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="L64" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="M64" s="66" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="65" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A65" s="46">
+        <v>44139</v>
+      </c>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="6"/>
+      <c r="I65" s="50"/>
+      <c r="J65" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="L65" s="68" t="s">
+        <v>172</v>
+      </c>
+      <c r="M65" s="68" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="66" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A66" s="46">
+        <v>44140</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="6"/>
+      <c r="I66" s="50"/>
+      <c r="J66" s="6"/>
+      <c r="K66" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L66" s="6"/>
+      <c r="M66" s="9"/>
+    </row>
+    <row r="67" s="3" customFormat="1" ht="18" customHeight="1" spans="1:13">
+      <c r="A67" s="67">
+        <v>44141</v>
+      </c>
+      <c r="B67" s="41"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41"/>
+      <c r="E67" s="41"/>
+      <c r="F67" s="41"/>
+      <c r="G67" s="41"/>
+      <c r="H67" s="41"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="40"/>
+      <c r="K67" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="L67" s="6"/>
+      <c r="M67" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="B1:I1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:I2"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:F42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="16.6296296296296" style="3" customWidth="1"/>
+    <col min="2" max="3" width="14.6296296296296" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.6296296296296" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.6296296296296" style="3" customWidth="1"/>
+    <col min="6" max="6" width="13.7592592592593" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3">
+        <v>202208</v>
+      </c>
+    </row>
+    <row r="2" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A2" s="3"/>
+      <c r="B2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="3"/>
+      <c r="E2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="5">
+        <v>0.375</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="5">
+        <v>0.458333333333333</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A4" s="3"/>
+      <c r="B4" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="5" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A5" s="3"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A6" s="3"/>
+      <c r="B6" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>183</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A7" s="3"/>
+      <c r="B7" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A12" s="3"/>
+      <c r="B12" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A14" s="3"/>
+      <c r="B14" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A15" s="3"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="16" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A16" s="3"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="17" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A17" s="3"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="16"/>
+    </row>
+    <row r="18" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A18" s="3"/>
+      <c r="B18" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+    </row>
+    <row r="19" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A19" s="3"/>
+      <c r="B19" s="5">
+        <v>0.0416666666666667</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+    </row>
+    <row r="20" customFormat="1" ht="16" customHeight="1" spans="1:5">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+    </row>
+    <row r="21" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A21" s="17"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="18"/>
+      <c r="F21" s="19"/>
+    </row>
+    <row r="22" customFormat="1" ht="16" customHeight="1" spans="1:6">
+      <c r="A22" s="17"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="19"/>
+    </row>
+    <row r="23" customFormat="1" spans="1:6">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="20"/>
+    </row>
+    <row r="24" customFormat="1"/>
+    <row r="25" customFormat="1"/>
+    <row r="26" customFormat="1"/>
+    <row r="27" customFormat="1"/>
+    <row r="28" customFormat="1"/>
+    <row r="29" customFormat="1"/>
+    <row r="30" customFormat="1"/>
+    <row r="31" customFormat="1"/>
+    <row r="32" customFormat="1"/>
+    <row r="33" customFormat="1"/>
+    <row r="34" customFormat="1"/>
+    <row r="35" customFormat="1"/>
+    <row r="36" customFormat="1"/>
+    <row r="37" customFormat="1"/>
+    <row r="38" customFormat="1"/>
+    <row r="39" customFormat="1"/>
+    <row r="40" customFormat="1"/>
+    <row r="41" customFormat="1"/>
+    <row r="42" customFormat="1"/>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C7:C10"/>
+    <mergeCell ref="C14:C17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
+  <dimension ref="A1:M82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C88" sqref="C88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="13" width="8.88888888888889" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="1:13">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="1:13">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:13">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:13">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+    </row>
+    <row r="30" spans="1:13">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+    </row>
+    <row r="31" spans="1:13">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+    </row>
+    <row r="32" spans="1:13">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+    </row>
+    <row r="34" spans="1:13">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+    </row>
+    <row r="35" spans="1:13">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+    </row>
+    <row r="36" spans="1:13">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+    </row>
+    <row r="37" spans="1:13">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+    </row>
+    <row r="45" spans="1:13">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+    </row>
+    <row r="46" spans="1:13">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+    </row>
+    <row r="47" spans="1:13">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+    </row>
+    <row r="48" spans="1:13">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+    </row>
+    <row r="49" spans="1:13">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+    </row>
+    <row r="50" spans="1:13">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+    </row>
+    <row r="51" spans="1:13">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+    </row>
+    <row r="53" spans="1:13">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+    </row>
+    <row r="54" spans="1:13">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+    </row>
+    <row r="55" spans="1:13">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="1:13">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="1:13">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+    </row>
+    <row r="58" spans="1:13">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+    </row>
+    <row r="59" spans="1:13">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+    </row>
+    <row r="60" spans="1:13">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+    </row>
+    <row r="61" spans="1:13">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+    </row>
+    <row r="62" spans="1:13">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+      <c r="K62" s="2"/>
+      <c r="L62" s="2"/>
+      <c r="M62" s="2"/>
+    </row>
+    <row r="63" spans="1:13">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+      <c r="M63" s="2"/>
+    </row>
+    <row r="64" spans="1:13">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+      <c r="M64" s="2"/>
+    </row>
+    <row r="65" spans="1:13">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+      <c r="M65" s="2"/>
+    </row>
+    <row r="66" spans="1:13">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+      <c r="L66" s="2"/>
+      <c r="M66" s="2"/>
+    </row>
+    <row r="67" spans="1:13">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+    </row>
+    <row r="68" spans="1:13">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+      <c r="K68" s="2"/>
+      <c r="L68" s="2"/>
+      <c r="M68" s="2"/>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+      <c r="K69" s="2"/>
+      <c r="L69" s="2"/>
+      <c r="M69" s="2"/>
+    </row>
+    <row r="70" spans="1:13">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+      <c r="I70" s="2"/>
+      <c r="J70" s="2"/>
+      <c r="K70" s="2"/>
+      <c r="L70" s="2"/>
+      <c r="M70" s="2"/>
+    </row>
+    <row r="71" spans="1:13">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+    </row>
+    <row r="72" spans="1:13">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+      <c r="M72" s="2"/>
+    </row>
+    <row r="73" spans="1:13">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+      <c r="K73" s="2"/>
+      <c r="L73" s="2"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="I79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="K79" s="2"/>
+      <c r="L79" s="2"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="I80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="I81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+      <c r="M82" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:M82"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>